--- a/钢筋铺设表.xlsx
+++ b/钢筋铺设表.xlsx
@@ -405,9 +405,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -415,44 +415,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,7 +433,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +502,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,9 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,38 +549,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +619,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,25 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,19 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,25 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,37 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +762,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -789,15 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -809,6 +809,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,21 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -870,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2334,6 +2334,12 @@
       <c r="B38" s="6">
         <v>90</v>
       </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -2351,6 +2357,12 @@
       <c r="B39" s="6">
         <v>48</v>
       </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
@@ -3066,6 +3078,12 @@
       <c r="B71" s="6">
         <v>16</v>
       </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
@@ -3176,12 +3194,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:10">
       <c r="A77" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="6">
         <v>12</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3234,6 +3261,12 @@
       <c r="B80" s="6">
         <v>28</v>
       </c>
+      <c r="C80">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
@@ -3248,6 +3281,12 @@
       <c r="B81" s="6">
         <v>48</v>
       </c>
+      <c r="C81">
+        <v>48</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="I81" s="2">
         <v>1</v>
       </c>
@@ -3356,6 +3395,12 @@
       <c r="B87" s="6">
         <v>256</v>
       </c>
+      <c r="C87">
+        <v>254</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
@@ -3370,6 +3415,12 @@
       <c r="B88" s="6">
         <v>512</v>
       </c>
+      <c r="C88">
+        <v>508</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
@@ -3384,6 +3435,12 @@
       <c r="B89" s="6">
         <v>480</v>
       </c>
+      <c r="C89">
+        <v>480</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
@@ -3398,6 +3455,12 @@
       <c r="B90" s="6">
         <v>120</v>
       </c>
+      <c r="C90">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
@@ -3423,6 +3486,12 @@
       <c r="B92" s="6">
         <v>480</v>
       </c>
+      <c r="C92">
+        <v>480</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
@@ -3437,6 +3506,12 @@
       <c r="B93" s="6">
         <v>120</v>
       </c>
+      <c r="C93">
+        <v>120</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
@@ -3482,7 +3557,6 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="1"/>
       <c r="I96" s="2">
         <v>1</v>
       </c>

--- a/钢筋铺设表.xlsx
+++ b/钢筋铺设表.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -433,6 +433,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -440,7 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,52 +458,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,9 +477,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +517,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +595,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,49 +709,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,91 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,6 +798,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -813,26 +822,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,13 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,145 +870,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3094,12 +3094,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:4">
       <c r="A72" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="6">
         <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3526,6 +3532,12 @@
       <c r="B94" s="6">
         <v>384</v>
       </c>
+      <c r="C94">
+        <v>384</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
       <c r="F94" s="1">
         <v>1</v>
       </c>
@@ -3540,6 +3552,12 @@
       <c r="B95" s="6">
         <v>192</v>
       </c>
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>92</v>
+      </c>
       <c r="F95" s="1">
         <v>1</v>
       </c>
@@ -3554,6 +3572,12 @@
       <c r="B96" s="6">
         <v>294</v>
       </c>
+      <c r="C96">
+        <v>288</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
@@ -3568,6 +3592,12 @@
       <c r="B97" s="6">
         <v>238</v>
       </c>
+      <c r="C97">
+        <v>218</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
@@ -3582,6 +3612,12 @@
       <c r="B98" s="6">
         <v>428</v>
       </c>
+      <c r="C98">
+        <v>252</v>
+      </c>
+      <c r="D98">
+        <v>176</v>
+      </c>
       <c r="F98" s="1">
         <v>1</v>
       </c>
@@ -3595,6 +3631,12 @@
       </c>
       <c r="B99" s="6">
         <v>228</v>
+      </c>
+      <c r="C99">
+        <v>224</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
